--- a/7RMartProject/src/test/resources/TestData.xlsx
+++ b/7RMartProject/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navamy\git\7RMartProject\7RMartProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A516FEE6-F919-4F55-9E22-32A4F46E38BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B982569F-4173-4650-BB42-2B0F664FFAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{74A45155-E05F-47E9-ACC3-7E254A472724}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>usertypevalue</t>
+  </si>
+  <si>
+    <t>staff</t>
   </si>
 </sst>
 </file>
@@ -488,8 +491,8 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>3</v>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/7RMartProject/src/test/resources/TestData.xlsx
+++ b/7RMartProject/src/test/resources/TestData.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navamy\git\7RMartProject\7RMartProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B982569F-4173-4650-BB42-2B0F664FFAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C783F4-874A-4A68-BABC-0076BF3CD0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{74A45155-E05F-47E9-ACC3-7E254A472724}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{74A45155-E05F-47E9-ACC3-7E254A472724}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUserPage" sheetId="2" r:id="rId2"/>
+    <sheet name="SubcategoryPage" sheetId="3" r:id="rId3"/>
+    <sheet name="ManagenewsPage" sheetId="4" r:id="rId4"/>
+    <sheet name="ManageProductPage" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>username</t>
   </si>
@@ -50,6 +53,54 @@
   </si>
   <si>
     <t>staff</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>subcategory</t>
+  </si>
+  <si>
+    <t>GlucoseMonitor</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>Hi there, typing some news</t>
+  </si>
+  <si>
+    <t>Grocery</t>
+  </si>
+  <si>
+    <t>Carrot</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>weightvalue</t>
+  </si>
+  <si>
+    <t>weightunit</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>min qty</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
 </sst>
 </file>
@@ -462,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43FBD6F-8481-4FCF-AD96-E803CE3CF821}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -498,4 +549,131 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C644A9-C2DE-49BF-8B4C-40C9F03C7673}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162E34A5-5B37-47EE-9837-4AA0912A20FB}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="33.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5019E9-EEA8-49D4-8BE2-8EAD9EA0393B}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7RMartProject/src/test/resources/TestData.xlsx
+++ b/7RMartProject/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navamy\git\7RMartProject\7RMartProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C783F4-874A-4A68-BABC-0076BF3CD0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B19EA7F-9551-44FE-8D55-30FA3B8616D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{74A45155-E05F-47E9-ACC3-7E254A472724}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{74A45155-E05F-47E9-ACC3-7E254A472724}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>username</t>
   </si>
@@ -49,31 +49,16 @@
     <t>hellopassword</t>
   </si>
   <si>
-    <t>usertypevalue</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
     <t>subcategory</t>
   </si>
   <si>
     <t>GlucoseMonitor</t>
   </si>
   <si>
-    <t>Electronics</t>
-  </si>
-  <si>
     <t>news</t>
   </si>
   <si>
     <t>Hi there, typing some news</t>
-  </si>
-  <si>
-    <t>Grocery</t>
   </si>
   <si>
     <t>Carrot</t>
@@ -511,9 +496,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43FBD6F-8481-4FCF-AD96-E803CE3CF821}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -524,26 +509,20 @@
     <col min="3" max="3" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -553,11 +532,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C644A9-C2DE-49BF-8B4C-40C9F03C7673}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="B1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -565,28 +542,19 @@
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -609,12 +577,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -627,41 +595,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5019E9-EEA8-49D4-8BE2-8EAD9EA0393B}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>250</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>1</v>

--- a/7RMartProject/src/test/resources/TestData.xlsx
+++ b/7RMartProject/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navamy\git\7RMartProject\7RMartProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B19EA7F-9551-44FE-8D55-30FA3B8616D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE2F4C2-858D-4894-B888-3B77D0934590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{74A45155-E05F-47E9-ACC3-7E254A472724}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74A45155-E05F-47E9-ACC3-7E254A472724}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>username</t>
   </si>
@@ -71,12 +71,6 @@
   </si>
   <si>
     <t>weightvalue</t>
-  </si>
-  <si>
-    <t>weightunit</t>
-  </si>
-  <si>
-    <t>g</t>
   </si>
   <si>
     <t>min qty</t>
@@ -439,7 +433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D331D45-4AA9-479E-8719-A18DE9E6B541}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -498,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43FBD6F-8481-4FCF-AD96-E803CE3CF821}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -596,7 +590,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -608,17 +602,14 @@
       <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -627,9 +618,6 @@
       </c>
       <c r="B2">
         <v>250</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
       </c>
       <c r="D2">
         <v>1</v>

--- a/7RMartProject/src/test/resources/TestData.xlsx
+++ b/7RMartProject/src/test/resources/TestData.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navamy\git\7RMartProject\7RMartProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE2F4C2-858D-4894-B888-3B77D0934590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1BB6F7-E938-4224-994D-9BB41280C406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{74A45155-E05F-47E9-ACC3-7E254A472724}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{74A45155-E05F-47E9-ACC3-7E254A472724}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUserPage" sheetId="2" r:id="rId2"/>
     <sheet name="SubcategoryPage" sheetId="3" r:id="rId3"/>
-    <sheet name="ManagenewsPage" sheetId="4" r:id="rId4"/>
-    <sheet name="ManageProductPage" sheetId="5" r:id="rId5"/>
+    <sheet name="ManageContactPage" sheetId="6" r:id="rId4"/>
+    <sheet name="ManagenewsPage" sheetId="4" r:id="rId5"/>
+    <sheet name="ManageProductPage" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>username</t>
   </si>
@@ -52,9 +53,6 @@
     <t>subcategory</t>
   </si>
   <si>
-    <t>GlucoseMonitor</t>
-  </si>
-  <si>
     <t>news</t>
   </si>
   <si>
@@ -80,16 +78,48 @@
   </si>
   <si>
     <t>stock</t>
+  </si>
+  <si>
+    <t>Glucose Monitor</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>hellloobsqura@gmail.com</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>obsqura, tvm</t>
+  </si>
+  <si>
+    <t>delivery time</t>
+  </si>
+  <si>
+    <t>delivery charge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -112,13 +142,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -433,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D331D45-4AA9-479E-8719-A18DE9E6B541}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -528,7 +561,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C644A9-C2DE-49BF-8B4C-40C9F03C7673}">
   <dimension ref="B1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -543,12 +578,12 @@
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -557,6 +592,61 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744ADEFC-A5F2-452E-8719-DD4BEBB702AE}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>799459</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{E18E996F-1B83-42BC-98E5-B7B423C42435}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162E34A5-5B37-47EE-9837-4AA0912A20FB}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -571,12 +661,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -585,7 +675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5019E9-EEA8-49D4-8BE2-8EAD9EA0393B}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -597,24 +687,24 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>250</v>

--- a/7RMartProject/src/test/resources/TestData.xlsx
+++ b/7RMartProject/src/test/resources/TestData.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navamy\git\7RMartProject\7RMartProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1BB6F7-E938-4224-994D-9BB41280C406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5562AB-1E09-4C20-9DCC-19650D22AE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{74A45155-E05F-47E9-ACC3-7E254A472724}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="840" activeTab="4" xr2:uid="{74A45155-E05F-47E9-ACC3-7E254A472724}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUserPage" sheetId="2" r:id="rId2"/>
     <sheet name="SubcategoryPage" sheetId="3" r:id="rId3"/>
     <sheet name="ManageContactPage" sheetId="6" r:id="rId4"/>
-    <sheet name="ManagenewsPage" sheetId="4" r:id="rId5"/>
-    <sheet name="ManageProductPage" sheetId="5" r:id="rId6"/>
+    <sheet name="ManageFooterPage" sheetId="7" r:id="rId5"/>
+    <sheet name="ManagenewsPage" sheetId="4" r:id="rId6"/>
+    <sheet name="ManageProductPage" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>username</t>
   </si>
@@ -102,6 +103,12 @@
   </si>
   <si>
     <t>delivery charge</t>
+  </si>
+  <si>
+    <t>obsqura , tvm</t>
+  </si>
+  <si>
+    <t>helloobsqura@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -595,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744ADEFC-A5F2-452E-8719-DD4BEBB702AE}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -647,6 +654,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F8AA20-2B8B-4E99-B763-B922875A2418}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>7994596</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{C317A8BA-E83A-445C-A294-1ACAAC8E2325}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162E34A5-5B37-47EE-9837-4AA0912A20FB}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -675,7 +722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5019E9-EEA8-49D4-8BE2-8EAD9EA0393B}">
   <dimension ref="A1:F2"/>
   <sheetViews>
